--- a/for_thesis/csv/wipe rate.xlsx
+++ b/for_thesis/csv/wipe rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shimizu/TAKUMI_SHIMIZU/waseda_graduation_thesis/for_thesis/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092695F9-EA3B-3742-9A48-586F3DA0859E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31551DCE-F6D4-2847-976B-37F126B58AF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1080" windowWidth="26120" windowHeight="14720" activeTab="2" xr2:uid="{8549FB08-1500-C246-9DD2-C54F8072513F}"/>
+    <workbookView xWindow="1260" yWindow="2580" windowWidth="26120" windowHeight="14720" xr2:uid="{8549FB08-1500-C246-9DD2-C54F8072513F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4294,7 +4294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB220DA-F1BD-0547-B629-BBAF9B7E30AA}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -6328,8 +6328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4284804F-E2B0-004E-9768-6C9587473AA3}">
   <dimension ref="A2:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
